--- a/src/test/resources/datadriven/data.xlsx
+++ b/src/test/resources/datadriven/data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>url</t>
   </si>
@@ -28,12 +28,6 @@
     <t>contrasena</t>
   </si>
   <si>
-    <t>numero1</t>
-  </si>
-  <si>
-    <t>numero2</t>
-  </si>
-  <si>
     <t>nameDominio</t>
   </si>
   <si>
@@ -46,9 +40,6 @@
     <t>mensajeexitoso</t>
   </si>
   <si>
-    <t>https://admin.turbodoctus3.doctustest.com/</t>
-  </si>
-  <si>
     <t>pruebaSP8</t>
   </si>
   <si>
@@ -59,6 +50,24 @@
   </si>
   <si>
     <t>The record has been created</t>
+  </si>
+  <si>
+    <t>serenity</t>
+  </si>
+  <si>
+    <t>https://serenity.is/demo/Account/Login/?ReturnUrl=%2Fdemo%2F</t>
+  </si>
+  <si>
+    <t>name_unit</t>
+  </si>
+  <si>
+    <t>parents_unit</t>
+  </si>
+  <si>
+    <t>Unidad1</t>
+  </si>
+  <si>
+    <t>Operations</t>
   </si>
 </sst>
 </file>
@@ -411,7 +420,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,6 +428,7 @@
     <col min="1" max="1" width="41.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
@@ -436,51 +446,51 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>123456789</v>
-      </c>
-      <c r="D2">
-        <v>40</v>
-      </c>
-      <c r="E2">
-        <v>20</v>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
       </c>
       <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
